--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Solaris10)" sheetId="5" r:id="rId5"/>
-    <sheet name="テンプレート(Solaris11)" sheetId="6" r:id="rId6"/>
+    <sheet name="利用手順" sheetId="7" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Solaris)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Solaris10)" sheetId="5" r:id="rId6"/>
+    <sheet name="テンプレート(Solaris11)" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="293">
   <si>
     <t>共通設定</t>
   </si>
@@ -775,6 +776,435 @@
   </si>
   <si>
     <t>net_ip</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* SPARC Solaris OSの構成情報を採取します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* Solaris10, Solaris11をサポートします。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Linux, Windows 標準OSテンプレートと同様に事前に「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>インベントリ採取実行後、同ディレクトリで XSCF 管理インターフェースのHW構成情報収集をします。詳細は「.\template\Solaris\XSCFチェックシート.xlsx」を参照してください。</t>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(未使用)</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>10.20.129.10</t>
+  </si>
+  <si>
+    <t>Solaris10</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>10.20.129.12</t>
+  </si>
+  <si>
+    <t>Solaris11</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\Solaris\config_solaris.groovy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>// Solaris 接続情報</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.user      = 'guest'</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.password  = 'guest000'</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Solaris\config_solaris.groovy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -861,7 +1291,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,8 +1334,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1465,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1038,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,6 +1711,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,9 +2085,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:T79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="1029" width="8.75" customWidth="1"/>
+    <col min="1030" max="1031" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="B34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.25">
+      <c r="B35" s="33">
+        <v>1</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="B36" s="33">
+        <v>2</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33">
+        <v>6</v>
+      </c>
+      <c r="O36" s="33">
+        <v>48</v>
+      </c>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="B37" s="33">
+        <v>3</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="B38" s="33">
+        <v>4</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="B39" s="33">
+        <v>5</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="33">
+        <v>6</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="B41" s="33">
+        <v>7</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="B42" s="33">
+        <v>8</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="B43" s="33">
+        <v>9</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="B44" s="33">
+        <v>10</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="C50" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="37"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="B52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="C54" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="40"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="43"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="C56" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="43"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="C57" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="43"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="C58" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="46"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="C64" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="37"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="B68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="C70" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="37"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="B72" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="B73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="C75" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="37"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="C79" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="J32:T32"/>
+  </mergeCells>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +3510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
@@ -2479,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2570,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F47"/>
   <sheetViews>
@@ -3356,2300 +4780,6 @@
       <c r="F47" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1534066277" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="1019" width="8.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
-      <c r="A1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17">
-        <v>32</v>
-      </c>
-      <c r="G3" s="17">
-        <v>128</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
-      <c r="A6" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
-      <c r="A13" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75">
-      <c r="A14" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75">
-      <c r="A17" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75">
-      <c r="A18" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75">
-      <c r="A19" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75">
-      <c r="A20" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75">
-      <c r="A21" s="11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75">
-      <c r="A23" s="11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75">
-      <c r="A24" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75">
-      <c r="A25" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75">
-      <c r="A26" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75">
-      <c r="A27" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75">
-      <c r="A28" s="11">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75">
-      <c r="A29" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75">
-      <c r="A30" s="11">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75">
-      <c r="A31" s="11">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75">
-      <c r="A32" s="11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75">
-      <c r="A33" s="11">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75">
-      <c r="A34" s="11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75">
-      <c r="A35" s="11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75">
-      <c r="A36" s="11">
-        <f t="shared" ref="A36:A67" si="1">A35+1</f>
-        <v>34</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75">
-      <c r="A37" s="11">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75">
-      <c r="A38" s="11">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75">
-      <c r="A39" s="11">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75">
-      <c r="A40" s="11">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75">
-      <c r="A41" s="11">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75">
-      <c r="A42" s="11">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75">
-      <c r="A43" s="11">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75">
-      <c r="A44" s="11">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75">
-      <c r="A45" s="11">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75">
-      <c r="A46" s="11">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75">
-      <c r="A47" s="11">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75">
-      <c r="A48" s="11">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75">
-      <c r="A49" s="11">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75">
-      <c r="A50" s="11">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75">
-      <c r="A51" s="11">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75">
-      <c r="A52" s="11">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75">
-      <c r="A53" s="11">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75">
-      <c r="A54" s="11">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75">
-      <c r="A55" s="11">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75">
-      <c r="A56" s="11">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75">
-      <c r="A57" s="11">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75">
-      <c r="A58" s="11">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75">
-      <c r="A59" s="11">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75">
-      <c r="A60" s="11">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75">
-      <c r="A61" s="11">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75">
-      <c r="A62" s="11">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75">
-      <c r="A63" s="11">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75">
-      <c r="A64" s="11">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75">
-      <c r="A65" s="11">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75">
-      <c r="A66" s="11">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75">
-      <c r="A67" s="11">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75">
-      <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="2">A67+1</f>
-        <v>66</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75">
-      <c r="A69" s="11">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75">
-      <c r="A70" s="11">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75">
-      <c r="A71" s="11">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75">
-      <c r="A72" s="11">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75">
-      <c r="A73" s="11">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75">
-      <c r="A74" s="11">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75">
-      <c r="A75" s="11">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75">
-      <c r="A76" s="11">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75">
-      <c r="A77" s="11">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75">
-      <c r="A78" s="11">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-    </row>
-    <row r="79" spans="1:16" ht="15.75">
-      <c r="A79" s="11">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-    </row>
-    <row r="80" spans="1:16" ht="15.75">
-      <c r="A80" s="11">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75">
-      <c r="A81" s="11">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75">
-      <c r="A82" s="11">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75">
-      <c r="A83" s="11">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75">
-      <c r="A84" s="11">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-    </row>
-    <row r="85" spans="1:16" ht="15.75">
-      <c r="A85" s="11">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-    </row>
-    <row r="86" spans="1:16" ht="15.75">
-      <c r="A86" s="11">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75">
-      <c r="A87" s="11">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75">
-      <c r="A88" s="11">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75">
-      <c r="A89" s="11">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75">
-      <c r="A90" s="11">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75">
-      <c r="A91" s="11">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-    </row>
-    <row r="92" spans="1:16" ht="15.75">
-      <c r="A92" s="11">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-    </row>
-    <row r="93" spans="1:16" ht="15.75">
-      <c r="A93" s="11">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-    </row>
-    <row r="94" spans="1:16" ht="15.75">
-      <c r="A94" s="11">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-    </row>
-    <row r="95" spans="1:16" ht="15.75">
-      <c r="A95" s="11">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-    </row>
-    <row r="96" spans="1:16" ht="15.75">
-      <c r="A96" s="11">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-    </row>
-    <row r="97" spans="1:16" ht="15.75">
-      <c r="A97" s="11">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-    </row>
-    <row r="98" spans="1:16" ht="15.75">
-      <c r="A98" s="11">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-    </row>
-    <row r="99" spans="1:16" ht="15.75">
-      <c r="A99" s="11">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-    </row>
-    <row r="100" spans="1:16" ht="15.75">
-      <c r="A100" s="11">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-    </row>
-    <row r="101" spans="1:16" ht="15.75">
-      <c r="A101" s="11">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-    </row>
-    <row r="102" spans="1:16" ht="15.75">
-      <c r="A102" s="11">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
@@ -5686,6 +4816,2300 @@
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.5">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <v>32</v>
+      </c>
+      <c r="G3" s="17">
+        <v>128</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
+      <c r="A43" s="11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
+      <c r="A44" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
+      <c r="A45" s="11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
+      <c r="A46" s="11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
+      <c r="A47" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
+      <c r="A49" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
+      <c r="A51" s="11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
+      <c r="A52" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
+      <c r="A54" s="11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
+      <c r="A58" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
+      <c r="A59" s="11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
+      <c r="A61" s="11">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
+      <c r="A62" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
+      <c r="A63" s="11">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
+      <c r="A64" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
+      <c r="A65" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
+      <c r="A66" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
+      <c r="A67" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
+      <c r="A68" s="11">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
+      <c r="A69" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
+      <c r="A70" s="11">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
+      <c r="A71" s="11">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
+      <c r="A72" s="11">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
+      <c r="A73" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
+      <c r="A74" s="11">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
+      <c r="A75" s="11">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
+      <c r="A76" s="11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
+      <c r="A77" s="11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
+      <c r="A78" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
+      <c r="A79" s="11">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
+      <c r="A80" s="11">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
+      <c r="A81" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="11">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="11">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="11">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="11">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="11">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
+      <c r="A92" s="11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
+      <c r="A93" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="11">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
+      <c r="A97" s="11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
+      <c r="A99" s="11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
+      <c r="A100" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="11">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1534066277" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -1291,7 +1291,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +1338,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1628,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1710,30 +1716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1768,6 +1750,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2088,9 +2097,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T79"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2110,740 +2119,2065 @@
     <col min="1030" max="1031" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="40" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="40" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="40" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="C20" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="40" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="C21" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="40" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="C22" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="40" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="C23" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="40" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="C24" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="40" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="C25" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="40" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="C26" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="40" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="C27" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="40" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="C28" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="40" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="29" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="31"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="40"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="32" t="s">
+      <c r="N33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="32" t="s">
+      <c r="O33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P33" s="32" t="s">
+      <c r="P33" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q33" s="32" t="s">
+      <c r="Q33" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="32" t="s">
+      <c r="R33" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="32" t="s">
+      <c r="S33" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T33" s="32" t="s">
+      <c r="T33" s="45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="B34" s="28" t="s">
+      <c r="U33" s="40"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="32" t="s">
+      <c r="M34" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="32" t="s">
+      <c r="N34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="32" t="s">
+      <c r="O34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="32" t="s">
+      <c r="P34" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="32" t="s">
+      <c r="Q34" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="32" t="s">
+      <c r="R34" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S34" s="32" t="s">
+      <c r="S34" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="T34" s="32" t="s">
+      <c r="T34" s="45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="14.25">
-      <c r="B35" s="33">
+      <c r="U34" s="40"/>
+    </row>
+    <row r="35" spans="1:21" ht="14.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="46">
         <v>1</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="B36" s="33">
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="40"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="40"/>
+      <c r="B36" s="46">
         <v>2</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33">
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46">
         <v>6</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="46">
         <v>48</v>
       </c>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="B37" s="33">
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="40"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="40"/>
+      <c r="B37" s="46">
         <v>3</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="B38" s="33">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="40"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="40"/>
+      <c r="B38" s="46">
         <v>4</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="B39" s="33">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="40"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="40"/>
+      <c r="B39" s="46">
         <v>5</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="B40" s="33">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="40"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="40"/>
+      <c r="B40" s="46">
         <v>6</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="B41" s="33">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="40"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="40"/>
+      <c r="B41" s="46">
         <v>7</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="B42" s="33">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="40"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="40"/>
+      <c r="B42" s="46">
         <v>8</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="B43" s="33">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="40"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="40"/>
+      <c r="B43" s="46">
         <v>9</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="B44" s="33">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="40"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="40"/>
+      <c r="B44" s="46">
         <v>10</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="40"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="40" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="C50" s="35" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="37"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="B52" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="C54" s="38" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="40"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="C55" s="41"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="43"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="C56" s="41" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="43"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="C57" s="41" t="s">
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="43"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="C58" s="44" t="s">
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="46"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="40" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="B62" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="C64" s="35" t="s">
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="37"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="40" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="B68" t="s">
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="C70" s="35" t="s">
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="37"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="B72" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="B73" t="s">
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="C75" s="35" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="37"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="B77" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="C79" s="35" t="s">
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="37"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2888,28 +4222,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -9369,7 +10703,7 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
   <si>
     <t>共通設定</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>cpu_total</t>
-  </si>
-  <si>
     <t>filesystem</t>
   </si>
   <si>
@@ -633,82 +630,6 @@
   </si>
   <si>
     <t>packages:k</t>
-  </si>
-  <si>
-    <t>SunOS</t>
-  </si>
-  <si>
-    <t>5.10</t>
-  </si>
-  <si>
-    <t>igb0</t>
-  </si>
-  <si>
-    <t>${ip}</t>
-  </si>
-  <si>
-    <t>10.20.129.1</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>487G</t>
-  </si>
-  <si>
-    <t>zabbix</t>
-  </si>
-  <si>
-    <t>/network/inetd</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJSVsnap
-</t>
-  </si>
-  <si>
-    <t>${ip2}</t>
-  </si>
-  <si>
-    <t>/tmp</t>
-  </si>
-  <si>
-    <t>171G</t>
-  </si>
-  <si>
-    <t>guest</t>
-  </si>
-  <si>
-    <t>${ip3}</t>
-  </si>
-  <si>
-    <t>/var/run</t>
-  </si>
-  <si>
-    <t>170G</t>
-  </si>
-  <si>
-    <t>${ip4}</t>
-  </si>
-  <si>
-    <t>${ip5}</t>
-  </si>
-  <si>
-    <t>5.11</t>
-  </si>
-  <si>
-    <t>net0</t>
-  </si>
-  <si>
-    <t>121G</t>
-  </si>
-  <si>
-    <t>/export/home</t>
-  </si>
-  <si>
-    <t>547G</t>
   </si>
   <si>
     <t>CPUコア数</t>
@@ -768,14 +689,6 @@
   </si>
   <si>
     <t>net_subnet</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>net_subnet</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>net_ip</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -1207,12 +1120,45 @@
     <t>getconfig -u db</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>MEM容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>_redmine:SPARCサーバ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>net_ip</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>net_subnet</t>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1288,6 +1234,21 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1634,7 +1595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,13 +1713,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1770,13 +1737,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,7 +2063,7 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2120,1323 +2084,1323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="39"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="39"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="U34" s="39"/>
+    </row>
+    <row r="35" spans="1:21" ht="14.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="42">
+        <v>1</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40" t="s">
+      <c r="E35" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40" t="s">
+      <c r="F35" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="40" t="s">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="39"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="39"/>
+      <c r="B36" s="42">
+        <v>2</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40" t="s">
+      <c r="E36" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40" t="s">
+      <c r="F36" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42">
+        <v>6</v>
+      </c>
+      <c r="O36" s="42">
+        <v>48</v>
+      </c>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="39"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="39"/>
+      <c r="B37" s="42">
+        <v>3</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="39"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42">
+        <v>4</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="39"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42">
+        <v>5</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="39"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="39"/>
+      <c r="B40" s="42">
+        <v>6</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="39"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="39"/>
+      <c r="B41" s="42">
+        <v>7</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="39"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="39"/>
+      <c r="B42" s="42">
+        <v>8</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="39"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="39"/>
+      <c r="B43" s="42">
+        <v>9</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="39"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="39"/>
+      <c r="B44" s="42">
+        <v>10</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="39"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="40" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40" t="s">
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="27" t="s">
         <v>248</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="40"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="U33" s="40"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="U34" s="40"/>
-    </row>
-    <row r="35" spans="1:21" ht="14.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="46">
-        <v>1</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="40"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="40"/>
-      <c r="B36" s="46">
-        <v>2</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46">
-        <v>6</v>
-      </c>
-      <c r="O36" s="46">
-        <v>48</v>
-      </c>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="40"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="40"/>
-      <c r="B37" s="46">
-        <v>3</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="40"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="40"/>
-      <c r="B38" s="46">
-        <v>4</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="40"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="40"/>
-      <c r="B39" s="46">
-        <v>5</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="40"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="40"/>
-      <c r="B40" s="46">
-        <v>6</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="40"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="40"/>
-      <c r="B41" s="46">
-        <v>7</v>
-      </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="40"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="40"/>
-      <c r="B42" s="46">
-        <v>8</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="40"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="40"/>
-      <c r="B43" s="46">
-        <v>9</v>
-      </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="40"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="40"/>
-      <c r="B44" s="46">
-        <v>10</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="40"/>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -3449,90 +3413,90 @@
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="29"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="30" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -3545,17 +3509,17 @@
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="33"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
@@ -3568,19 +3532,19 @@
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="35"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="33" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -3593,19 +3557,19 @@
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="35"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="33" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
@@ -3618,19 +3582,19 @@
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="35"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="36" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
@@ -3643,138 +3607,138 @@
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
       <c r="N58" s="38"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
+      <c r="A60" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="27" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
@@ -3787,138 +3751,138 @@
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="29"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
+      <c r="A66" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="27" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -3931,115 +3895,115 @@
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="29"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="27" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -4052,90 +4016,90 @@
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
       <c r="N75" s="29"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="27" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
@@ -4148,36 +4112,36 @@
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="29"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="40"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40"/>
-      <c r="T80" s="40"/>
-      <c r="U80" s="40"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4222,28 +4186,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4848,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4888,10 +4852,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>46</v>
@@ -4903,16 +4867,16 @@
         <v>48</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>50</v>
@@ -4967,43 +4931,27 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>126</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
-        <v>185</v>
-      </c>
+      <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="9" t="s">
-        <v>39</v>
+      <c r="S5" s="48" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1">
@@ -5013,28 +4961,50 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="9" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:19" hidden="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5048,11 +5018,15 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:19" hidden="1">
       <c r="A8" s="8"/>
@@ -5256,16 +5230,16 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5273,16 +5247,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5352,27 +5326,27 @@
         <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -5382,43 +5356,43 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5427,7 +5401,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -5443,7 +5417,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -5456,67 +5430,67 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5525,14 +5499,14 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5541,14 +5515,14 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5557,217 +5531,217 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -5777,342 +5751,342 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +6113,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6164,7 +6138,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>39</v>
@@ -6235,82 +6209,52 @@
         <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17">
-        <v>32</v>
-      </c>
-      <c r="G3" s="17">
-        <v>128</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>210</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
@@ -6324,19 +6268,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>211</v>
-      </c>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6353,16 +6289,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="I5" s="21"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -6380,9 +6310,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6403,9 +6331,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="I7" s="21"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -8433,7 +8359,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8459,7 +8385,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>39</v>
@@ -8530,82 +8456,52 @@
         <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17">
-        <v>32</v>
-      </c>
-      <c r="G3" s="17">
-        <v>128</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>210</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
@@ -8619,19 +8515,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="21" t="s">
-        <v>211</v>
-      </c>
+      <c r="I4" s="21"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -8648,9 +8536,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="21" t="s">
-        <v>215</v>
-      </c>
+      <c r="I5" s="21"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8671,9 +8557,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8694,9 +8578,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="I7" s="21"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="300">
   <si>
     <t>共通設定</t>
   </si>
@@ -155,9 +155,27 @@
     <t>Solaris</t>
   </si>
   <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>10.20.129.10</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
+    <t>Solaris10</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>10.20.129.12</t>
+  </si>
+  <si>
+    <t>Solaris11</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -212,6 +230,9 @@
     <t>Machine</t>
   </si>
   <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
     <t>filesystem</t>
   </si>
   <si>
@@ -630,6 +651,82 @@
   </si>
   <si>
     <t>packages:k</t>
+  </si>
+  <si>
+    <t>SunOS</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>igb0</t>
+  </si>
+  <si>
+    <t>${ip}</t>
+  </si>
+  <si>
+    <t>10.20.129.1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>487G</t>
+  </si>
+  <si>
+    <t>zabbix</t>
+  </si>
+  <si>
+    <t>/network/inetd</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJSVsnap
+</t>
+  </si>
+  <si>
+    <t>${ip2}</t>
+  </si>
+  <si>
+    <t>/tmp</t>
+  </si>
+  <si>
+    <t>171G</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>${ip3}</t>
+  </si>
+  <si>
+    <t>/var/run</t>
+  </si>
+  <si>
+    <t>170G</t>
+  </si>
+  <si>
+    <t>${ip4}</t>
+  </si>
+  <si>
+    <t>${ip5}</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>net0</t>
+  </si>
+  <si>
+    <t>121G</t>
+  </si>
+  <si>
+    <t>/export/home</t>
+  </si>
+  <si>
+    <t>547G</t>
   </si>
   <si>
     <t>CPUコア数</t>
@@ -692,89 +789,18 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>0. はじめに</t>
+    <t>net_subnet</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>* SPARC Solaris OSの構成情報を採取します。</t>
+    <t>net_ip</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>* Solaris10, Solaris11をサポートします。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>1. プロジェクトディレクトリの作成と移動</t>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Linux, Windows 標準OSテンプレートと同様に事前に「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。</t>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>作成したプロジェクトディレクトリに移動します。</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>インベントリ採取実行後、同ディレクトリで XSCF 管理インターフェースのHW構成情報収集をします。詳細は「.\template\Solaris\XSCFチェックシート.xlsx」を参照してください。</t>
-    <rPh sb="26" eb="28">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>2. 検査シート編集</t>
   </si>
   <si>
-    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
-    <t>検査するシナリオID Solaris を指定します。</t>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>対象サーバ</t>
@@ -835,19 +861,6 @@
   </si>
   <si>
     <t>テンプレートID</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -953,6 +966,63 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>インベントリ採取実行後、同ディレクトリで XSCF 管理インターフェースのHW構成情報収集をします。詳細は「.\template\Solaris\XSCFチェックシート.xlsx」を参照してください。</t>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>「.\template\Solaris\Solarisチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>検査するシナリオID Solaris を指定します。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Solaris10 または、 Solaris11 を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
     <t>OS設定項目</t>
     <rPh sb="2" eb="4">
       <t>セッテイ</t>
@@ -1009,42 +1079,10 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>10.20.129.10</t>
-  </si>
-  <si>
-    <t>Solaris10</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>10.20.129.12</t>
-  </si>
-  <si>
-    <t>Solaris11</t>
-  </si>
-  <si>
     <t>3. 設定ファイル(config.groovy)編集</t>
   </si>
   <si>
     <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad++ .\template\Solaris\config_solaris.groovy</t>
-    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
@@ -1054,26 +1092,10 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>// Solaris 接続情報</t>
-  </si>
-  <si>
-    <t>account.Solaris.Test.user      = 'guest'</t>
-  </si>
-  <si>
-    <t>account.Solaris.Test.password  = 'guest000'</t>
-  </si>
-  <si>
-    <t>account.Solaris.Test.work_dir  = '/tmp/gradle_test'</t>
-  </si>
-  <si>
     <t>4. Getconfig インベントリ収集実行</t>
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Solaris\config_solaris.groovy</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -1121,6 +1143,71 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
+    <t>notepad++ .\template\Solaris\config_solaris.groovy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>// Solaris 接続情報</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.user      = 'guest'</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.password  = 'guest000'</t>
+  </si>
+  <si>
+    <t>account.Solaris.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Solaris\config_solaris.groovy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* SPARC Solaris OSの構成情報を採取します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* .\template\Solaris が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* Solaris10, Solaris11をサポートします。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Linux, Windows 標準OSテンプレートと同様に事前に「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
     <t>OS名</t>
     <rPh sb="2" eb="3">
       <t>メイ</t>
@@ -1146,11 +1233,18 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>net_ip</t>
+    <t>(*)</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>net_subnet</t>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solaris</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1716,16 +1810,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1738,9 +1835,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2061,7 +2155,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2108,7 +2202,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="39" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2157,7 +2251,7 @@
     <row r="4" spans="1:21">
       <c r="A4" s="39"/>
       <c r="B4" s="39" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -2182,7 +2276,7 @@
     <row r="5" spans="1:21">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -2207,7 +2301,7 @@
     <row r="6" spans="1:21">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -2254,7 +2348,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="39" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2303,7 +2397,7 @@
     <row r="10" spans="1:21">
       <c r="A10" s="39"/>
       <c r="B10" s="39" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -2328,7 +2422,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="39"/>
       <c r="B11" s="39" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -2353,7 +2447,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2423,7 +2517,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="39" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -2472,7 +2566,7 @@
     <row r="17" spans="1:21">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -2497,7 +2591,7 @@
     <row r="18" spans="1:21">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -2549,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -2573,10 +2667,10 @@
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -2600,10 +2694,10 @@
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -2627,10 +2721,10 @@
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -2654,10 +2748,10 @@
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -2681,10 +2775,10 @@
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -2708,10 +2802,10 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -2735,10 +2829,10 @@
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -2762,10 +2856,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -2811,7 +2905,7 @@
     <row r="30" spans="1:21">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -2859,28 +2953,28 @@
     <row r="32" spans="1:21">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="44" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="47"/>
       <c r="U32" s="39"/>
     </row>
     <row r="33" spans="1:21">
@@ -3012,16 +3106,16 @@
         <v>39</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
@@ -3047,16 +3141,16 @@
         <v>39</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
@@ -3302,7 +3396,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="39" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -3351,7 +3445,7 @@
     <row r="48" spans="1:21">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -3400,7 +3494,7 @@
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="27" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -3447,7 +3541,7 @@
     <row r="52" spans="1:21">
       <c r="A52" s="39"/>
       <c r="B52" s="39" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
@@ -3496,7 +3590,7 @@
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="30" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -3544,7 +3638,7 @@
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -3569,7 +3663,7 @@
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
@@ -3594,7 +3688,7 @@
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="36" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
@@ -3640,7 +3734,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="39" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -3689,7 +3783,7 @@
     <row r="62" spans="1:21">
       <c r="A62" s="39"/>
       <c r="B62" s="39" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
@@ -3738,7 +3832,7 @@
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="27" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
@@ -3784,7 +3878,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="39" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -3833,7 +3927,7 @@
     <row r="68" spans="1:21">
       <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
@@ -3882,7 +3976,7 @@
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="27" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -3929,7 +4023,7 @@
     <row r="72" spans="1:21">
       <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -3954,7 +4048,7 @@
     <row r="73" spans="1:21">
       <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -4003,7 +4097,7 @@
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -4050,7 +4144,7 @@
     <row r="77" spans="1:21">
       <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -4099,7 +4193,7 @@
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
@@ -4143,6 +4237,19 @@
       <c r="T80" s="39"/>
       <c r="U80" s="39"/>
     </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C32:I32"/>
@@ -4162,9 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4186,28 +4291,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4363,8 +4468,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5">
+        <v>6</v>
+      </c>
+      <c r="N5" s="5">
+        <v>48</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -4798,6 +4907,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$83:$C$84</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1534066277" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -4812,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4831,69 +4950,69 @@
   <sheetData>
     <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:19" hidden="1">
       <c r="A4" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -4914,31 +5033,31 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" hidden="1">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -4950,13 +5069,13 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="48" t="s">
-        <v>268</v>
+      <c r="S5" s="44" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4965,35 +5084,35 @@
         <v>29</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -5003,7 +5122,7 @@
     </row>
     <row r="7" spans="1:19" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -5019,13 +5138,13 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:19" hidden="1">
@@ -5050,25 +5169,25 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" hidden="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" hidden="1">
       <c r="A10" s="10"/>
@@ -5230,33 +5349,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5323,76 +5442,76 @@
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5401,7 +5520,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -5417,7 +5536,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -5430,67 +5549,67 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5499,14 +5618,14 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5515,14 +5634,14 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5531,217 +5650,217 @@
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="26" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -5751,342 +5870,342 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6113,7 +6232,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6138,7 +6257,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>39</v>
@@ -6209,52 +6328,82 @@
         <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.5">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="B3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <v>32</v>
+      </c>
+      <c r="G3" s="17">
+        <v>128</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
@@ -6268,11 +6417,19 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="1"/>
+      <c r="K4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6289,10 +6446,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>221</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -6310,7 +6473,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6331,7 +6496,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -8359,7 +8526,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8385,7 +8552,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>39</v>
@@ -8456,52 +8623,82 @@
         <v>34</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.5">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="B3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <v>32</v>
+      </c>
+      <c r="G3" s="17">
+        <v>128</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
@@ -8515,11 +8712,19 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="1"/>
+      <c r="K4" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -8536,7 +8741,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>221</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8557,7 +8764,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8578,7 +8787,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>225</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="304">
   <si>
     <t>共通設定</t>
   </si>
@@ -798,9 +798,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>対象サーバ</t>
@@ -1139,10 +1136,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>notepad++ .\template\Solaris\config_solaris.groovy</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -1246,6 +1239,43 @@
   <si>
     <t>Solaris</t>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)は必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッシュ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -rp {Redmineプロジェクト名}</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -2155,9 +2185,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2202,7 +2232,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2251,7 +2281,7 @@
     <row r="4" spans="1:21">
       <c r="A4" s="39"/>
       <c r="B4" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -2276,7 +2306,7 @@
     <row r="5" spans="1:21">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -2301,7 +2331,7 @@
     <row r="6" spans="1:21">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -2348,7 +2378,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2397,7 +2427,7 @@
     <row r="10" spans="1:21">
       <c r="A10" s="39"/>
       <c r="B10" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -2422,7 +2452,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="39"/>
       <c r="B11" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -2447,7 +2477,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2566,7 +2596,7 @@
     <row r="17" spans="1:21">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -2591,7 +2621,7 @@
     <row r="18" spans="1:21">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -2638,12 +2668,14 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C20" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -2665,12 +2697,14 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C21" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>248</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -2692,12 +2726,14 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C22" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>249</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>250</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -2719,12 +2755,14 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="B23" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C23" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -2748,10 +2786,10 @@
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -2775,10 +2813,10 @@
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>255</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -2802,10 +2840,10 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>256</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>257</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -2829,10 +2867,10 @@
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>258</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>259</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -2856,10 +2894,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>266</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>267</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -2905,7 +2943,7 @@
     <row r="30" spans="1:21">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -3396,7 +3434,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -3445,7 +3483,7 @@
     <row r="48" spans="1:21">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -3494,7 +3532,7 @@
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -3541,7 +3579,7 @@
     <row r="52" spans="1:21">
       <c r="A52" s="39"/>
       <c r="B52" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
@@ -3590,7 +3628,7 @@
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
@@ -3638,7 +3676,7 @@
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
@@ -3663,7 +3701,7 @@
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
@@ -3688,7 +3726,7 @@
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
@@ -3734,7 +3772,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -3783,7 +3821,7 @@
     <row r="62" spans="1:21">
       <c r="A62" s="39"/>
       <c r="B62" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
@@ -3832,7 +3870,7 @@
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
@@ -3878,7 +3916,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -3927,7 +3965,7 @@
     <row r="68" spans="1:21">
       <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
@@ -3976,7 +4014,7 @@
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -4023,7 +4061,7 @@
     <row r="72" spans="1:21">
       <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -4048,7 +4086,7 @@
     <row r="73" spans="1:21">
       <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -4097,7 +4135,7 @@
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -4144,7 +4182,7 @@
     <row r="77" spans="1:21">
       <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -4192,20 +4230,20 @@
     <row r="79" spans="1:21">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
-      <c r="C79" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="29"/>
+      <c r="C79" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
       <c r="O79" s="39"/>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
@@ -4217,18 +4255,20 @@
     <row r="80" spans="1:21">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
+      <c r="C80" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
@@ -4237,17 +4277,159 @@
       <c r="T80" s="39"/>
       <c r="U80" s="39"/>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="81" spans="1:21">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="B88" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="C90" t="s">
         <v>297</v>
-      </c>
-      <c r="C82" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="C84" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4468,12 +4650,8 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>6</v>
-      </c>
-      <c r="N5" s="5">
-        <v>48</v>
-      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -4911,7 +5089,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$83:$C$84</xm:f>
+            <xm:f>利用手順!$C$89:$C$90</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -5050,14 +5228,14 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5070,7 +5248,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:19" hidden="1">

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="306">
   <si>
     <t>共通設定</t>
   </si>
@@ -1271,11 +1271,25 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>getconfig -rp {Redmineプロジェクト名}</t>
-    <rPh sb="28" eb="29">
+    <t>getconfig -c .\template\Solaris\config_solaris.groovy -rp {Redmineプロジェクト名}</t>
+    <rPh sb="72" eb="73">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* template\Solaris\XSCFチェックシート.xlsx</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>* オンプレの SPARC サーバの場合,同ディレクトリ下の以下の HW インベントリ収集シナリオを実行してください。</t>
+    <rPh sb="21" eb="22">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1376,7 +1390,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,6 +1442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1719,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,6 +1873,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2187,7 +2210,7 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2203,8 +2226,7 @@
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="16" width="8.625" customWidth="1"/>
     <col min="17" max="20" width="10.5" customWidth="1"/>
-    <col min="21" max="1029" width="8.75" customWidth="1"/>
-    <col min="1030" max="1031" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2354,52 +2376,54 @@
       <c r="U6" s="39"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="39" t="s">
-        <v>260</v>
-      </c>
+      <c r="A8" s="45"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="C8" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="39"/>
@@ -2425,10 +2449,10 @@
       <c r="U9" s="39"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
-        <v>289</v>
-      </c>
+      <c r="A10" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -2451,9 +2475,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="39"/>
-      <c r="B11" s="39" t="s">
-        <v>290</v>
-      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -2477,7 +2499,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
@@ -2501,7 +2523,9 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="39" t="s">
+        <v>290</v>
+      </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -2524,7 +2548,9 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="39" t="s">
+        <v>261</v>
+      </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -2546,9 +2572,7 @@
       <c r="U14" s="39"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="39" t="s">
-        <v>245</v>
-      </c>
+      <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -2594,10 +2618,10 @@
       <c r="U16" s="39"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
-        <v>262</v>
-      </c>
+      <c r="A17" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
@@ -2620,9 +2644,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
-        <v>298</v>
-      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
@@ -2645,7 +2667,9 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>262</v>
+      </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -2669,14 +2693,10 @@
     <row r="20" spans="1:21">
       <c r="A20" s="39"/>
       <c r="B20" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>263</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -2697,15 +2717,9 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>247</v>
-      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -2730,10 +2744,10 @@
         <v>299</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -2759,10 +2773,10 @@
         <v>299</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -2784,12 +2798,14 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C24" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -2811,12 +2827,14 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="B25" s="39" t="s">
+        <v>299</v>
+      </c>
       <c r="C25" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -2840,10 +2858,10 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -2867,10 +2885,10 @@
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -2894,10 +2912,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -2920,8 +2938,12 @@
     <row r="29" spans="1:21">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>258</v>
+      </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -2942,11 +2964,13 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="39"/>
-      <c r="B30" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -2990,268 +3014,266 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="47"/>
+      <c r="B32" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="39"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="P33" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="T33" s="41" t="s">
-        <v>19</v>
-      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
       <c r="U33" s="39"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="39"/>
-      <c r="B34" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="S34" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="T34" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="48"/>
       <c r="U34" s="39"/>
     </row>
-    <row r="35" spans="1:21" ht="14.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="39"/>
-      <c r="B35" s="42">
-        <v>1</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="39"/>
-      <c r="B36" s="42">
-        <v>2</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42">
-        <v>6</v>
-      </c>
-      <c r="O36" s="42">
-        <v>48</v>
-      </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
+      <c r="B36" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="U36" s="39"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" ht="14.25">
       <c r="A37" s="39"/>
       <c r="B37" s="42">
-        <v>3</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
       <c r="U37" s="39"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="39"/>
       <c r="B38" s="42">
-        <v>4</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
+      <c r="N38" s="42">
+        <v>6</v>
+      </c>
+      <c r="O38" s="42">
+        <v>48</v>
+      </c>
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
@@ -3262,7 +3284,7 @@
     <row r="39" spans="1:21">
       <c r="A39" s="39"/>
       <c r="B39" s="42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
@@ -3287,7 +3309,7 @@
     <row r="40" spans="1:21">
       <c r="A40" s="39"/>
       <c r="B40" s="42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -3312,7 +3334,7 @@
     <row r="41" spans="1:21">
       <c r="A41" s="39"/>
       <c r="B41" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
@@ -3337,7 +3359,7 @@
     <row r="42" spans="1:21">
       <c r="A42" s="39"/>
       <c r="B42" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
@@ -3362,7 +3384,7 @@
     <row r="43" spans="1:21">
       <c r="A43" s="39"/>
       <c r="B43" s="42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -3387,7 +3409,7 @@
     <row r="44" spans="1:21">
       <c r="A44" s="39"/>
       <c r="B44" s="42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -3411,50 +3433,52 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
+      <c r="B45" s="42">
+        <v>9</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
       <c r="U45" s="39"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="42">
+        <v>10</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
       <c r="U46" s="39"/>
     </row>
     <row r="47" spans="1:21">
@@ -3481,10 +3505,10 @@
       <c r="U47" s="39"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39" t="s">
-        <v>268</v>
-      </c>
+      <c r="A48" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39"/>
@@ -3530,21 +3554,21 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
+      <c r="B50" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
       <c r="O50" s="39"/>
       <c r="P50" s="39"/>
       <c r="Q50" s="39"/>
@@ -3578,21 +3602,21 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="39"/>
-      <c r="B52" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
       <c r="O52" s="39"/>
       <c r="P52" s="39"/>
       <c r="Q52" s="39"/>
@@ -3626,21 +3650,21 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
+      <c r="B54" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="39"/>
       <c r="P54" s="39"/>
       <c r="Q54" s="39"/>
@@ -3652,18 +3676,18 @@
     <row r="55" spans="1:21">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="35"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
       <c r="Q55" s="39"/>
@@ -3675,20 +3699,20 @@
     <row r="56" spans="1:21">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
-      <c r="C56" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="35"/>
+      <c r="C56" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="32"/>
       <c r="O56" s="39"/>
       <c r="P56" s="39"/>
       <c r="Q56" s="39"/>
@@ -3700,9 +3724,7 @@
     <row r="57" spans="1:21">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
-      <c r="C57" s="33" t="s">
-        <v>282</v>
-      </c>
+      <c r="C57" s="33"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
@@ -3725,20 +3747,20 @@
     <row r="58" spans="1:21">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
-      <c r="C58" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="38"/>
+      <c r="C58" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="39"/>
       <c r="P58" s="39"/>
       <c r="Q58" s="39"/>
@@ -3750,18 +3772,20 @@
     <row r="59" spans="1:21">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
+      <c r="C59" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="35"/>
       <c r="O59" s="39"/>
       <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
@@ -3771,22 +3795,22 @@
       <c r="U59" s="39"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="39" t="s">
-        <v>270</v>
-      </c>
+      <c r="A60" s="39"/>
       <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
+      <c r="C60" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="38"/>
       <c r="O60" s="39"/>
       <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
@@ -3819,10 +3843,10 @@
       <c r="U61" s="39"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39" t="s">
-        <v>271</v>
-      </c>
+      <c r="A62" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39"/>
@@ -3868,21 +3892,21 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="29"/>
+      <c r="B64" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
       <c r="O64" s="39"/>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
@@ -3915,22 +3939,22 @@
       <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="39" t="s">
-        <v>272</v>
-      </c>
+      <c r="A66" s="39"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
+      <c r="C66" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="29"/>
       <c r="O66" s="39"/>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
@@ -3963,10 +3987,10 @@
       <c r="U67" s="39"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39" t="s">
-        <v>273</v>
-      </c>
+      <c r="A68" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
@@ -4012,21 +4036,21 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="29"/>
+      <c r="B70" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
       <c r="O70" s="39"/>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
@@ -4060,21 +4084,21 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="39"/>
-      <c r="B72" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="39"/>
       <c r="P72" s="39"/>
       <c r="Q72" s="39"/>
@@ -4085,9 +4109,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="39"/>
-      <c r="B73" s="39" t="s">
-        <v>276</v>
-      </c>
+      <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39"/>
@@ -4110,7 +4132,9 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+      <c r="B74" s="39" t="s">
+        <v>275</v>
+      </c>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
@@ -4133,21 +4157,21 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
+      <c r="B75" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
       <c r="O75" s="39"/>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
@@ -4181,21 +4205,21 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="39"/>
-      <c r="B77" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="39"/>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
@@ -4229,10 +4253,10 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39" t="s">
-        <v>300</v>
-      </c>
+      <c r="B79" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
       <c r="F79" s="39"/>
@@ -4255,20 +4279,18 @@
     <row r="80" spans="1:21">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
-      <c r="C80" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="29"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
       <c r="O80" s="39"/>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
@@ -4280,18 +4302,20 @@
     <row r="81" spans="1:21">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
+      <c r="C81" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
       <c r="O81" s="39"/>
       <c r="P81" s="39"/>
       <c r="Q81" s="39"/>
@@ -4303,20 +4327,20 @@
     <row r="82" spans="1:21">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
-      <c r="C82" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
+      <c r="C82" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="39"/>
       <c r="P82" s="39"/>
       <c r="Q82" s="39"/>
@@ -4328,20 +4352,18 @@
     <row r="83" spans="1:21">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
-      <c r="C83" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="29"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
       <c r="O83" s="39"/>
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
@@ -4353,7 +4375,9 @@
     <row r="84" spans="1:21">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="34" t="s">
+        <v>302</v>
+      </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
@@ -4376,18 +4400,20 @@
     <row r="85" spans="1:21">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
+      <c r="C85" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="39"/>
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
@@ -4399,18 +4425,18 @@
     <row r="86" spans="1:21">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
       <c r="O86" s="39"/>
       <c r="P86" s="39"/>
       <c r="Q86" s="39"/>
@@ -4434,8 +4460,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:T32"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="J34:T34"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4467,34 +4493,32 @@
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="1028" width="8.75" customWidth="1"/>
-    <col min="1029" max="1030" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4639,19 +4663,19 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -5109,9 +5133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S15"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="チェックシート(Solaris)" sheetId="5" r:id="rId5"/>
     <sheet name="テンプレート(Solaris10)" sheetId="6" r:id="rId6"/>
     <sheet name="テンプレート(Solaris11)" sheetId="7" r:id="rId7"/>
+    <sheet name="テンプレート(Solaris10_sample)" sheetId="8" r:id="rId8"/>
+    <sheet name="テンプレート(Solaris11_sample)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="307">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -633,9 +635,6 @@
   </si>
   <si>
     <t>metastat</t>
-  </si>
-  <si>
-    <t>ディスクRAID</t>
   </si>
   <si>
     <t>filesystem</t>
@@ -979,6 +978,22 @@
   </si>
   <si>
     <t>必須パッケージリスト</t>
+  </si>
+  <si>
+    <t>ソフトウェアRAID</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SunOS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>FJSVsnap</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>igb0</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1547,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +1714,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2023,7 +2056,7 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4298,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4487,8 +4520,8 @@
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
@@ -4931,7 +4964,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$89:$C$90</xm:f>
@@ -5487,7 +5520,7 @@
   <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5507,7 +5540,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>154</v>
@@ -5530,7 +5563,7 @@
         <v>158</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>105</v>
@@ -5551,7 +5584,7 @@
         <v>158</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>162</v>
@@ -5572,7 +5605,7 @@
         <v>158</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>179</v>
@@ -5593,67 +5626,67 @@
         <v>158</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5669,10 +5702,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5688,10 +5721,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>167</v>
@@ -5709,7 +5742,7 @@
         <v>158</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>165</v>
@@ -5730,20 +5763,20 @@
         <v>158</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5751,13 +5784,13 @@
         <v>158</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
@@ -5766,7 +5799,7 @@
         <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5774,20 +5807,20 @@
         <v>158</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5795,10 +5828,10 @@
         <v>158</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>140</v>
@@ -5808,7 +5841,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
@@ -5816,29 +5849,29 @@
         <v>158</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>172</v>
@@ -5854,10 +5887,10 @@
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>135</v>
@@ -5873,10 +5906,10 @@
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
@@ -5892,10 +5925,10 @@
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -5911,10 +5944,10 @@
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -5932,7 +5965,7 @@
         <v>158</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>170</v>
@@ -5951,10 +5984,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>185</v>
@@ -5970,10 +6003,10 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>187</v>
@@ -5989,10 +6022,10 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>189</v>
@@ -6010,7 +6043,7 @@
         <v>158</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>183</v>
@@ -6031,10 +6064,10 @@
         <v>158</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -6052,7 +6085,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>192</v>
@@ -6075,7 +6108,7 @@
         <v>158</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>194</v>
@@ -6096,7 +6129,7 @@
         <v>158</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>197</v>
@@ -6119,10 +6152,10 @@
         <v>158</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>199</v>
@@ -6138,13 +6171,13 @@
         <v>158</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -6153,7 +6186,7 @@
         <v>158</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6161,13 +6194,13 @@
         <v>158</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>71</v>
@@ -6176,7 +6209,7 @@
         <v>158</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6184,20 +6217,20 @@
         <v>158</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6205,13 +6238,13 @@
         <v>158</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>71</v>
@@ -6220,7 +6253,7 @@
         <v>158</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6228,13 +6261,13 @@
         <v>158</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
@@ -6243,26 +6276,26 @@
         <v>158</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="45"/>
       <c r="B40" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="45" t="s">
         <v>301</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>302</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6270,13 +6303,13 @@
         <v>158</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
@@ -6285,7 +6318,7 @@
         <v>158</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6308,6 +6341,4545 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
+      <c r="A43" s="11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
+      <c r="A44" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
+      <c r="A45" s="11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
+      <c r="A46" s="11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
+      <c r="A47" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
+      <c r="A49" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
+      <c r="A51" s="11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
+      <c r="A52" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
+      <c r="A54" s="11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
+      <c r="A58" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
+      <c r="A59" s="11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
+      <c r="A61" s="11">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
+      <c r="A62" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
+      <c r="A63" s="11">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
+      <c r="A64" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
+      <c r="A65" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
+      <c r="A66" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
+      <c r="A67" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
+      <c r="A68" s="11">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
+      <c r="A69" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
+      <c r="A70" s="11">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
+      <c r="A71" s="11">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
+      <c r="A72" s="11">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
+      <c r="A73" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
+      <c r="A74" s="11">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
+      <c r="A75" s="11">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
+      <c r="A76" s="11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
+      <c r="A77" s="11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
+      <c r="A78" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
+      <c r="A79" s="11">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
+      <c r="A80" s="11">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
+      <c r="A81" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="11">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="11">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="11">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="11">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="11">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
+      <c r="A92" s="11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
+      <c r="A93" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="11">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
+      <c r="A97" s="11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
+      <c r="A99" s="11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
+      <c r="A100" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="11">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="26.625" customWidth="1"/>
+    <col min="17" max="1019" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.25">
+      <c r="A1" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
+      <c r="A2" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25">
+      <c r="A4" s="56">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25">
+      <c r="A5" s="56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25">
+      <c r="A6" s="56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
+      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75">
+      <c r="A38" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75">
+      <c r="A39" s="11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75">
+      <c r="A40" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75">
+      <c r="A41" s="11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
+      <c r="A42" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75">
+      <c r="A43" s="11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75">
+      <c r="A44" s="11">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75">
+      <c r="A45" s="11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75">
+      <c r="A46" s="11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75">
+      <c r="A47" s="11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75">
+      <c r="A48" s="11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75">
+      <c r="A49" s="11">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75">
+      <c r="A50" s="11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75">
+      <c r="A51" s="11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
+      <c r="A52" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75">
+      <c r="A53" s="11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75">
+      <c r="A54" s="11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75">
+      <c r="A55" s="11">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75">
+      <c r="A56" s="11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75">
+      <c r="A57" s="11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75">
+      <c r="A58" s="11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75">
+      <c r="A59" s="11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75">
+      <c r="A60" s="11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75">
+      <c r="A61" s="11">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
+      <c r="A62" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75">
+      <c r="A63" s="11">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75">
+      <c r="A64" s="11">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75">
+      <c r="A65" s="11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75">
+      <c r="A66" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75">
+      <c r="A67" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75">
+      <c r="A68" s="11">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75">
+      <c r="A69" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
+      <c r="A70" s="11">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75">
+      <c r="A71" s="11">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
+      <c r="A72" s="11">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75">
+      <c r="A73" s="11">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75">
+      <c r="A74" s="11">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75">
+      <c r="A75" s="11">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75">
+      <c r="A76" s="11">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75">
+      <c r="A77" s="11">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75">
+      <c r="A78" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75">
+      <c r="A79" s="11">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75">
+      <c r="A80" s="11">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75">
+      <c r="A81" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75">
+      <c r="A82" s="11">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75">
+      <c r="A83" s="11">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75">
+      <c r="A84" s="11">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75">
+      <c r="A85" s="11">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75">
+      <c r="A86" s="11">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75">
+      <c r="A87" s="11">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75">
+      <c r="A88" s="11">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75">
+      <c r="A89" s="11">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75">
+      <c r="A90" s="11">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75">
+      <c r="A91" s="11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75">
+      <c r="A92" s="11">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75">
+      <c r="A93" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75">
+      <c r="A94" s="11">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75">
+      <c r="A95" s="11">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75">
+      <c r="A96" s="11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" spans="1:16" ht="15.75">
+      <c r="A97" s="11">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75">
+      <c r="A99" s="11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" spans="1:16" ht="15.75">
+      <c r="A100" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="11">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
@@ -6337,7 +10909,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6385,7 +10957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -6408,42 +10980,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
+    </row>
+    <row r="3" spans="1:16" ht="29.25" thickTop="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>251</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>252</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -6458,36 +11030,36 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -6498,17 +11070,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6527,14 +11099,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6554,7 +11126,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6577,7 +11149,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -7177,7 +11749,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
-        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -7198,7 +11770,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -7219,7 +11791,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -7240,7 +11812,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -7261,7 +11833,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -7282,7 +11854,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -7303,7 +11875,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -7324,7 +11896,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -7345,7 +11917,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -7366,7 +11938,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -7387,7 +11959,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -7408,7 +11980,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -7429,7 +12001,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -7450,7 +12022,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -7471,7 +12043,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="11"/>
@@ -7492,7 +12064,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="11"/>
@@ -7513,7 +12085,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="11"/>
@@ -7534,7 +12106,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="11"/>
@@ -7555,7 +12127,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="11"/>
@@ -7576,7 +12148,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="11"/>
@@ -7597,7 +12169,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="11"/>
@@ -7618,7 +12190,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="11"/>
@@ -7639,7 +12211,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="11"/>
@@ -7660,7 +12232,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="11"/>
@@ -7681,7 +12253,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="11"/>
@@ -7702,7 +12274,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="11"/>
@@ -7723,7 +12295,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" s="11"/>
@@ -7744,7 +12316,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" s="11"/>
@@ -7765,7 +12337,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="11"/>
@@ -7786,7 +12358,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" s="11"/>
@@ -7807,7 +12379,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" s="11"/>
@@ -7828,7 +12400,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
@@ -7849,7 +12421,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
@@ -7870,7 +12442,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
@@ -7891,7 +12463,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
@@ -7912,7 +12484,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
@@ -7933,7 +12505,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
@@ -7954,7 +12526,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
@@ -7975,7 +12547,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
@@ -7996,7 +12568,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
@@ -8017,7 +12589,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
@@ -8038,7 +12610,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
@@ -8059,7 +12631,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
@@ -8080,7 +12652,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
@@ -8101,7 +12673,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
@@ -8122,7 +12694,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
@@ -8143,7 +12715,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
@@ -8164,7 +12736,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
@@ -8185,7 +12757,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
@@ -8206,7 +12778,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
@@ -8227,7 +12799,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
@@ -8248,7 +12820,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
@@ -8269,7 +12841,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
@@ -8290,7 +12862,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
@@ -8311,7 +12883,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
@@ -8332,7 +12904,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
@@ -8353,7 +12925,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" s="11"/>
@@ -8374,7 +12946,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" s="11"/>
@@ -8395,7 +12967,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" s="11"/>
@@ -8416,7 +12988,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95" s="11"/>
@@ -8437,7 +13009,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B96" s="11"/>
@@ -8458,7 +13030,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97" s="11"/>
@@ -8479,7 +13051,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98" s="11"/>
@@ -8500,7 +13072,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99" s="11"/>
@@ -8521,7 +13093,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100" s="11"/>
@@ -8542,7 +13114,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101" s="11"/>
@@ -8563,7 +13135,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B102" s="11"/>
@@ -8590,23 +13162,15 @@
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8632,7 +13196,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -8680,7 +13244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -8703,42 +13267,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.5">
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickTop="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -8753,36 +13317,36 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="M3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A35" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -8793,17 +13357,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -8822,7 +13386,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -8845,7 +13409,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -8868,7 +13432,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -9468,7 +14032,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
-        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -9489,7 +14053,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -9510,7 +14074,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -9531,7 +14095,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -9552,7 +14116,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -9573,7 +14137,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -9594,7 +14158,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -9615,7 +14179,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -9636,7 +14200,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -9657,7 +14221,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -9678,7 +14242,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -9699,7 +14263,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -9720,7 +14284,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -9741,7 +14305,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -9762,7 +14326,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="11"/>
@@ -9783,7 +14347,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="11"/>
@@ -9804,7 +14368,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="11"/>
@@ -9825,7 +14389,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="11"/>
@@ -9846,7 +14410,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="11"/>
@@ -9867,7 +14431,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="11"/>
@@ -9888,7 +14452,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="11"/>
@@ -9909,7 +14473,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" s="11"/>
@@ -9930,7 +14494,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="11"/>
@@ -9951,7 +14515,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="11"/>
@@ -9972,7 +14536,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="11"/>
@@ -9993,7 +14557,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="11"/>
@@ -10014,7 +14578,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" s="11"/>
@@ -10035,7 +14599,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" s="11"/>
@@ -10056,7 +14620,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="11"/>
@@ -10077,7 +14641,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" s="11"/>
@@ -10098,7 +14662,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" s="11"/>
@@ -10119,7 +14683,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
@@ -10140,7 +14704,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="2">A67+1</f>
+        <f t="shared" ref="A68:A102" si="1">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
@@ -10161,7 +14725,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
@@ -10182,7 +14746,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
@@ -10203,7 +14767,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
@@ -10224,7 +14788,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
@@ -10245,7 +14809,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
@@ -10266,7 +14830,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
@@ -10287,7 +14851,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
@@ -10308,7 +14872,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
@@ -10329,7 +14893,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
@@ -10350,7 +14914,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
@@ -10371,7 +14935,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
@@ -10392,7 +14956,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
@@ -10413,7 +14977,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
@@ -10434,7 +14998,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
@@ -10455,7 +15019,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
@@ -10476,7 +15040,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
@@ -10497,7 +15061,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
@@ -10518,7 +15082,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
@@ -10539,7 +15103,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
@@ -10560,7 +15124,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
@@ -10581,7 +15145,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
@@ -10602,7 +15166,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
@@ -10623,7 +15187,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
@@ -10644,7 +15208,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" s="11"/>
@@ -10665,7 +15229,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" s="11"/>
@@ -10686,7 +15250,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" s="11"/>
@@ -10707,7 +15271,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95" s="11"/>
@@ -10728,7 +15292,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B96" s="11"/>
@@ -10749,7 +15313,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97" s="11"/>
@@ -10770,7 +15334,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98" s="11"/>
@@ -10791,7 +15355,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99" s="11"/>
@@ -10812,7 +15376,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100" s="11"/>
@@ -10833,7 +15397,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101" s="11"/>
@@ -10854,7 +15418,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B102" s="11"/>
@@ -10881,13 +15445,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -448,9 +448,6 @@
     <t>filesystem</t>
   </si>
   <si>
-    <t>net_ip</t>
-  </si>
-  <si>
     <t>net_subnet</t>
   </si>
   <si>
@@ -993,6 +990,10 @@
   </si>
   <si>
     <t>igb0</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>network</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1704,18 +1705,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1732,6 +1721,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,28 +2910,28 @@
     <row r="34" spans="1:21">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47" t="s">
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="49"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="55"/>
       <c r="U34" s="36"/>
     </row>
     <row r="35" spans="1:21">
@@ -4351,28 +4352,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4964,7 +4965,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$89:$C$90</xm:f>
@@ -4987,9 +4988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U15"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5174,17 +5173,17 @@
         <v>136</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5200,10 +5199,10 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5216,13 +5215,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:21" hidden="1">
@@ -5443,16 +5442,16 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5460,16 +5459,16 @@
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5540,153 +5539,153 @@
         <v>74</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
@@ -5702,10 +5701,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
@@ -5721,176 +5720,176 @@
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
       <c r="A19" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>135</v>
@@ -5900,16 +5899,16 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
@@ -5919,16 +5918,16 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -5938,16 +5937,16 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
@@ -5957,117 +5956,117 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
@@ -6077,88 +6076,88 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
@@ -6168,157 +6167,157 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="45"/>
       <c r="B40" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="45" t="s">
         <v>300</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>301</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6370,7 +6369,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6441,31 +6440,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -6473,35 +6472,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>259</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6517,7 +6516,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
@@ -6540,7 +6539,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6563,7 +6562,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6586,7 +6585,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8638,232 +8637,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25">
-      <c r="A1" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="N2" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="O2" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="P2" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="P2" s="52" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
-      <c r="A3" s="53">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="N3" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="O3" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
-      <c r="A4" s="56">
+      <c r="A4" s="52">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+        <v>260</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="56">
+      <c r="A5" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
+        <v>264</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="56">
+      <c r="A6" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" s="52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="56">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
     </row>
     <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="11">
@@ -10909,7 +10908,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -10980,31 +10979,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickTop="1">
@@ -11012,10 +11011,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -11030,31 +11029,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -11070,17 +11069,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -11099,14 +11098,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -11126,7 +11125,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11149,7 +11148,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -13196,7 +13195,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -13267,31 +13266,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickTop="1">
@@ -13299,10 +13298,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -13317,31 +13316,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>272</v>
-      </c>
       <c r="M3" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>259</v>
-      </c>
       <c r="P3" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -13357,17 +13356,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -13386,7 +13385,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -13409,7 +13408,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -13432,7 +13431,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -25,10 +25,10 @@
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1550007780" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1550007780" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1550007780" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1550007780"/>
+      <pm:revision xmlns:pm="smNativeData" day="1559162520" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1559162520" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1559162520" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1559162520"/>
     </ext>
   </extLst>
 </workbook>
@@ -448,6 +448,9 @@
     <t>filesystem</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>net_subnet</t>
   </si>
   <si>
@@ -493,12 +496,15 @@
     <t>error_msg</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>Platform</t>
   </si>
   <si>
@@ -511,108 +517,234 @@
     <t>Y</t>
   </si>
   <si>
+    <t>OSリリース</t>
+  </si>
+  <si>
     <t>hostname</t>
   </si>
   <si>
     <t>ホスト名の検索</t>
   </si>
   <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
     <t>hostname_fqdn</t>
   </si>
   <si>
-    <t>FQDN名</t>
-  </si>
-  <si>
     <t>FQDN名の検索</t>
   </si>
   <si>
+    <t>マシンID</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>hostidコマンドでマシン識別子の検索</t>
+  </si>
+  <si>
+    <t>Solaris11ビルドリリース</t>
+  </si>
+  <si>
+    <t>solaris11_build</t>
+  </si>
+  <si>
+    <t>Solaris 11 のビルドリリース情報</t>
+  </si>
+  <si>
+    <t>Solaris11バージョン</t>
+  </si>
+  <si>
+    <t>solaris11_build.version</t>
+  </si>
+  <si>
+    <t>Solaris 11 バージョン</t>
+  </si>
+  <si>
+    <t>Solaris11 SRU</t>
+  </si>
+  <si>
+    <t>solaris11_build.sru</t>
+  </si>
+  <si>
+    <t>Solaris 11 Support Repository Update</t>
+  </si>
+  <si>
+    <t>OS名</t>
+  </si>
+  <si>
+    <t>OSリリース</t>
+  </si>
+  <si>
+    <t>カーネル情報</t>
+  </si>
+  <si>
+    <t>KernelID</t>
+  </si>
+  <si>
+    <t>カーネル情報</t>
+  </si>
+  <si>
+    <t>カーネルバージョン</t>
+  </si>
+  <si>
     <t>kernel</t>
   </si>
   <si>
-    <t>カーネルバージョン</t>
-  </si>
-  <si>
     <t>/sbin/uname -XコマンドからOSバージョン情報採取</t>
   </si>
   <si>
-    <t>KernelID</t>
-  </si>
-  <si>
-    <t>カーネル情報</t>
+    <t>OS設定</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>/usr/sbin/zoneadmlist -vc コマンドから仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>パッチ構成</t>
+  </si>
+  <si>
+    <t>patches</t>
+  </si>
+  <si>
+    <t>ls -l /var/sadm/patch でパッチ情報取得(Solaris10のみ)</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
+  </si>
+  <si>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>/etc/resolve.conf から nameserver を検索</t>
+  </si>
+  <si>
+    <t>NTP設定</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+  </si>
+  <si>
+    <t>SNMP設定</t>
+  </si>
+  <si>
+    <t>SNMPトラップ情報</t>
+  </si>
+  <si>
+    <t>snmp_trap</t>
+  </si>
+  <si>
+    <t>'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
   </si>
   <si>
     <t>cpu</t>
   </si>
   <si>
-    <t>CPU情報</t>
-  </si>
-  <si>
     <t>kstat -p cpu_info コマンドからプロセッサ構成を検索</t>
   </si>
   <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t>CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t>CPUスレッド数</t>
-  </si>
-  <si>
-    <t>CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t>CPUソケット数</t>
-  </si>
-  <si>
-    <t>machineid</t>
-  </si>
-  <si>
-    <t>マシンID</t>
-  </si>
-  <si>
-    <t>hostidコマンドでマシン識別子の検索</t>
+    <t>メモリ</t>
+  </si>
+  <si>
+    <t>Swapアロケーション量[MB]</t>
+  </si>
+  <si>
+    <t>swap.alloc</t>
+  </si>
+  <si>
+    <t>swapアロケーション量</t>
+  </si>
+  <si>
+    <t>Swapリザーブ量[MB]</t>
+  </si>
+  <si>
+    <t>swap.reserve</t>
+  </si>
+  <si>
+    <t>swapリザーブ量</t>
+  </si>
+  <si>
+    <t>Swap利用可能[MB]</t>
+  </si>
+  <si>
+    <t>swap.available</t>
+  </si>
+  <si>
+    <t>swap利用可能</t>
+  </si>
+  <si>
+    <t>スワップ量</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>swap -sコマンドからスワップ量を検索</t>
+  </si>
+  <si>
+    <t>搭載メモリ量[GB]</t>
   </si>
   <si>
     <t>/usr/sbin/prtconfコマンドからメモリ構成を検索</t>
   </si>
   <si>
-    <t>swap</t>
-  </si>
-  <si>
-    <t>スワップ量</t>
-  </si>
-  <si>
-    <t>swap -sコマンドからスワップ量を検索</t>
-  </si>
-  <si>
-    <t>swap.alloc</t>
-  </si>
-  <si>
-    <t>swapアロケーション量</t>
-  </si>
-  <si>
-    <t>swap.reserve</t>
-  </si>
-  <si>
-    <t>swapリザーブ量</t>
-  </si>
-  <si>
-    <t>swap.available</t>
-  </si>
-  <si>
-    <t>swap利用可能</t>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
   </si>
   <si>
     <t>network</t>
   </si>
   <si>
-    <t>ネットワーク情報</t>
-  </si>
-  <si>
     <t>/usr/sbin/ifconfig -a'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
   </si>
   <si>
@@ -622,141 +754,99 @@
     <t>/usr/sbin/route -v -n get default コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
   </si>
   <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>ディスク情報</t>
+  </si>
+  <si>
     <t>disk</t>
   </si>
   <si>
-    <t>ディスク情報</t>
-  </si>
-  <si>
     <t>/usr/sbin/prtpicl -v でディスク情報を検索</t>
   </si>
   <si>
+    <t>ソフトウェアRAID</t>
+  </si>
+  <si>
     <t>metastat</t>
   </si>
   <si>
+    <t>ZFSプール情報</t>
+  </si>
+  <si>
+    <t>zpool</t>
+  </si>
+  <si>
+    <t>/usr/sbin/zpool status' コマンドでRAID情報を取得(Solaris11 ZFSのみ)</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
     <t>filesystem</t>
   </si>
   <si>
-    <t>ファイルシステム</t>
-  </si>
-  <si>
     <t>"df -ha"コマンドを実行して行数を検索。詳細は別シートに登録</t>
   </si>
   <si>
-    <t>zpool</t>
-  </si>
-  <si>
-    <t>ZFSプール情報</t>
-  </si>
-  <si>
-    <t>/usr/sbin/zpool status' コマンドでRAID情報を取得(Solaris11 ZFSのみ)</t>
+    <t>ユーザ</t>
+  </si>
+  <si>
+    <t>ログオンテスト</t>
+  </si>
+  <si>
+    <t>logon_test</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>ユーザ情報</t>
-  </si>
-  <si>
     <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
   </si>
   <si>
-    <t>logon_test</t>
-  </si>
-  <si>
-    <t>ログオンテスト</t>
-  </si>
-  <si>
-    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
-    <t>virturization</t>
-  </si>
-  <si>
-    <t>仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t>/usr/sbin/zoneadmlist -vc コマンドから仮想化プラットフォームの検索</t>
+    <t>サービス</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
   </si>
   <si>
     <t>service</t>
   </si>
   <si>
-    <t>サービス構成</t>
-  </si>
-  <si>
     <t>svcs -a コマンドで、サービス数を検索、詳細は別シートに登録</t>
   </si>
   <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>必須パッケージ</t>
+  </si>
+  <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
+    <t>必須パッケージリスト</t>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
     <t>packages</t>
   </si>
   <si>
-    <t>パッケージ構成</t>
-  </si>
-  <si>
     <t>pkginfo -l でパッケージ情報取得</t>
   </si>
   <si>
-    <t>patches</t>
-  </si>
-  <si>
-    <t>パッチ構成</t>
-  </si>
-  <si>
-    <t>ls -l /var/sadm/patch でパッチ情報取得(Solaris10のみ)</t>
-  </si>
-  <si>
-    <t>solaris11_build</t>
-  </si>
-  <si>
-    <t>Solaris11ビルドリリース</t>
-  </si>
-  <si>
-    <t>Solaris 11 のビルドリリース情報</t>
-  </si>
-  <si>
-    <t>solaris11_build.version</t>
-  </si>
-  <si>
-    <t>Solaris11バージョン</t>
-  </si>
-  <si>
-    <t>Solaris 11 バージョン</t>
-  </si>
-  <si>
-    <t>solaris11_build.sru</t>
-  </si>
-  <si>
-    <t>Solaris11 SRU</t>
-  </si>
-  <si>
-    <t>Solaris 11 Support Repository Update</t>
-  </si>
-  <si>
-    <t>resolve_conf</t>
-  </si>
-  <si>
-    <t>DNS設定</t>
-  </si>
-  <si>
-    <t>/etc/resolve.conf から nameserver を検索</t>
-  </si>
-  <si>
-    <t>NTPサーバ名</t>
-  </si>
-  <si>
-    <t>NTPサーバの検索</t>
-  </si>
-  <si>
-    <t>snmp_trap</t>
-  </si>
-  <si>
-    <t>SNMPトラップ情報</t>
-  </si>
-  <si>
-    <t>'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
-  </si>
-  <si>
     <t>network:k</t>
   </si>
   <si>
@@ -796,6 +886,42 @@
     <t>${ip}</t>
   </si>
   <si>
+    <t>zabbix</t>
+  </si>
+  <si>
+    <t>/network/inetd</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>FJSVsnap</t>
+  </si>
+  <si>
+    <t>${ip2}</t>
+  </si>
+  <si>
+    <t>${ip3}</t>
+  </si>
+  <si>
+    <t>${ip4}</t>
+  </si>
+  <si>
+    <t>${ip5}</t>
+  </si>
+  <si>
+    <t>SunOS</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>net0</t>
+  </si>
+  <si>
+    <t>igb0</t>
+  </si>
+  <si>
     <t>10.20.129.1</t>
   </si>
   <si>
@@ -803,24 +929,12 @@
   </si>
   <si>
     <t>487G</t>
-  </si>
-  <si>
-    <t>zabbix</t>
-  </si>
-  <si>
-    <t>/network/inetd</t>
-  </si>
-  <si>
-    <t>On</t>
   </si>
   <si>
     <t xml:space="preserve">FJSVsnap
 </t>
   </si>
   <si>
-    <t>${ip2}</t>
-  </si>
-  <si>
     <t>/tmp</t>
   </si>
   <si>
@@ -830,27 +944,12 @@
     <t>guest</t>
   </si>
   <si>
-    <t>${ip3}</t>
-  </si>
-  <si>
     <t>/var/run</t>
   </si>
   <si>
     <t>170G</t>
   </si>
   <si>
-    <t>${ip4}</t>
-  </si>
-  <si>
-    <t>${ip5}</t>
-  </si>
-  <si>
-    <t>5.11</t>
-  </si>
-  <si>
-    <t>net0</t>
-  </si>
-  <si>
     <t>121G</t>
   </si>
   <si>
@@ -858,143 +957,6 @@
   </si>
   <si>
     <t>547G</t>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>OS設定</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CPU</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>メモリ</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ネットワーク</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ストレージ</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>サービス</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パッケージ</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>NTP設定</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>SNMP設定</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>OSリリース</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>OS名</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>OSリリース</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>カーネル情報</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロセッサーモデル</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CPUクロック</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CPUスレッド数</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CPUコア数</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CPUソケット数</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Swapアロケーション量[MB]</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Swapリザーブ量[MB]</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Swap利用可能[MB]</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>搭載メモリ量[GB]</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>パッケージ</t>
-  </si>
-  <si>
-    <t>必須パッケージ</t>
-  </si>
-  <si>
-    <t>packages.requirements</t>
-  </si>
-  <si>
-    <t>必須パッケージリスト</t>
-  </si>
-  <si>
-    <t>ソフトウェアRAID</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>SunOS</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>FJSVsnap</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>igb0</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1080,7 +1042,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,12 +1064,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1201,38 +1157,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1336,21 +1262,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1495,65 +1406,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1563,7 +1415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,7 +1485,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -1669,49 +1521,28 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1720,16 +1551,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1750,15 +1584,13 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1550007780" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1559162520" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1550007780" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1559162520" count="3">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
-        <pm:color name="*20%灰色" rgb="000000"/>
-        <pm:color name="色 27" rgb="D9D9D9"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -2077,2220 +1909,2220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="41"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="53" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="36"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="30"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="K35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="N35" s="38" t="s">
+      <c r="N35" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="38" t="s">
+      <c r="O35" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="P35" s="38" t="s">
+      <c r="P35" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="38" t="s">
+      <c r="Q35" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="R35" s="38" t="s">
+      <c r="R35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="S35" s="38" t="s">
+      <c r="S35" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="T35" s="38" t="s">
+      <c r="T35" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="U35" s="36"/>
+      <c r="U35" s="30"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="38" t="s">
+      <c r="M36" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="N36" s="38" t="s">
+      <c r="N36" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="O36" s="38" t="s">
+      <c r="O36" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="P36" s="38" t="s">
+      <c r="P36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="38" t="s">
+      <c r="Q36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="R36" s="38" t="s">
+      <c r="R36" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="S36" s="38" t="s">
+      <c r="S36" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="T36" s="38" t="s">
+      <c r="T36" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="U36" s="36"/>
+      <c r="U36" s="30"/>
     </row>
     <row r="37" spans="1:21" ht="14.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="39">
+      <c r="A37" s="30"/>
+      <c r="B37" s="35">
         <v>1</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="36"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="30"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="36"/>
-      <c r="B38" s="39">
+      <c r="A38" s="30"/>
+      <c r="B38" s="35">
         <v>2</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39">
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35">
         <v>6</v>
       </c>
-      <c r="O38" s="39">
+      <c r="O38" s="35">
         <v>48</v>
       </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="36"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="30"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="36"/>
-      <c r="B39" s="39">
+      <c r="A39" s="30"/>
+      <c r="B39" s="35">
         <v>3</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="36"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="30"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39">
+      <c r="A40" s="30"/>
+      <c r="B40" s="35">
         <v>4</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="36"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="30"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39">
+      <c r="A41" s="30"/>
+      <c r="B41" s="35">
         <v>5</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="36"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="30"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39">
+      <c r="A42" s="30"/>
+      <c r="B42" s="35">
         <v>6</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="36"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="30"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39">
+      <c r="A43" s="30"/>
+      <c r="B43" s="35">
         <v>7</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="36"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="30"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="36"/>
-      <c r="B44" s="39">
+      <c r="A44" s="30"/>
+      <c r="B44" s="35">
         <v>8</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="36"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="30"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39">
+      <c r="A45" s="30"/>
+      <c r="B45" s="35">
         <v>9</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="36"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="30"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39">
+      <c r="A46" s="30"/>
+      <c r="B46" s="35">
         <v>10</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="36"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="30"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="24" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="30" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="33" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="24" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="30"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="30"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="30"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="24" t="s">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="30"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="30"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36" t="s">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="30"/>
+      <c r="U75" s="30"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="24" t="s">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="30"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36" t="s">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="24" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="30"/>
+      <c r="U82" s="30"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="31" t="s">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="24" t="s">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
     </row>
     <row r="88" spans="1:21">
       <c r="B88" t="s">
@@ -4319,7 +4151,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4352,28 +4184,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4518,19 +4350,23 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35">
+        <v>6</v>
+      </c>
+      <c r="N5" s="35">
+        <v>48</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -4975,7 +4811,7 @@
       </x14:dataValidations>
     </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5031,10 +4867,10 @@
       <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="4" t="s">
         <v>112</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -5046,16 +4882,16 @@
       <c r="N3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="4" t="s">
         <v>117</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="4" t="s">
         <v>119</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -5173,17 +5009,17 @@
         <v>136</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5199,10 +5035,10 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5215,13 +5051,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:21" hidden="1">
@@ -5414,7 +5250,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5442,16 +5278,16 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5459,16 +5295,16 @@
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5505,7 +5341,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5519,39 +5355,39 @@
   <dimension ref="A4:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="34.25" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="64.375" customWidth="1"/>
-    <col min="8" max="1026" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="64.375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="1025" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>274</v>
+      <c r="B4" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>156</v>
@@ -5559,765 +5395,765 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>285</v>
+        <v>159</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>285</v>
+        <v>159</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>285</v>
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>285</v>
+        <v>159</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
-      <c r="B9" s="44" t="s">
-        <v>285</v>
+      <c r="B9" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
-      <c r="B10" s="44" t="s">
-        <v>285</v>
+      <c r="B10" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="44" t="s">
-        <v>285</v>
+      <c r="B11" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
-      <c r="B12" s="44" t="s">
-        <v>285</v>
+      <c r="B12" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="44" t="s">
-        <v>285</v>
+      <c r="B13" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>285</v>
+        <v>159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>275</v>
+        <v>159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>275</v>
+        <v>159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>275</v>
+        <v>159</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>283</v>
+        <v>159</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
       <c r="A19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>284</v>
+        <v>159</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
-      <c r="B20" s="44" t="s">
-        <v>276</v>
+      <c r="B20" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
-      <c r="B21" s="44" t="s">
-        <v>276</v>
+      <c r="B21" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
-      <c r="B22" s="44" t="s">
-        <v>276</v>
+      <c r="B22" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
-      <c r="B23" s="44" t="s">
-        <v>276</v>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="44" t="s">
-        <v>276</v>
+      <c r="B24" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>276</v>
+        <v>159</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
-      <c r="B26" s="44" t="s">
-        <v>277</v>
+      <c r="B26" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="44" t="s">
-        <v>277</v>
+      <c r="B27" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="44" t="s">
-        <v>277</v>
+      <c r="B28" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>277</v>
+        <v>159</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>277</v>
+        <v>159</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27">
       <c r="A31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>278</v>
+        <v>159</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27">
       <c r="A32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>278</v>
+        <v>159</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>279</v>
+        <v>159</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>279</v>
+        <v>159</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>279</v>
+        <v>159</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>279</v>
+        <v>159</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>280</v>
+        <v>159</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>280</v>
+        <v>159</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>281</v>
+        <v>159</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>282</v>
+        <v>159</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6330,7 +6166,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6369,7 +6205,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6440,31 +6276,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -6472,35 +6308,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>250</v>
+        <v>279</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>280</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="17" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6516,7 +6352,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
@@ -6539,7 +6375,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6562,7 +6398,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6585,7 +6421,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8600,7 +8436,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8637,232 +8473,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25">
-      <c r="A1" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>248</v>
+      <c r="H2" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
-      <c r="A3" s="49">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50" t="s">
-        <v>270</v>
+      <c r="B3" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43" t="s">
+        <v>293</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>258</v>
+        <v>282</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>285</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
-      <c r="A4" s="52">
+      <c r="A4" s="45">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
+        <v>287</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="52">
+      <c r="A5" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
+        <v>288</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="52">
+      <c r="A6" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
+        <v>289</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="52">
+      <c r="A7" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
+        <v>290</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="11">
@@ -10862,14 +10698,14 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550007780" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10908,7 +10744,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -10956,7 +10792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -10979,42 +10815,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="29.25" thickTop="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.5">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>250</v>
+        <v>279</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>280</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -11029,36 +10865,36 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -11069,17 +10905,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -11098,14 +10934,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -11125,7 +10961,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11148,7 +10984,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -11748,7 +11584,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -11769,7 +11605,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -11790,7 +11626,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -11811,7 +11647,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -11832,7 +11668,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -11853,7 +11689,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -11874,7 +11710,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -11895,7 +11731,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -11916,7 +11752,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -11937,7 +11773,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -11958,7 +11794,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -11979,7 +11815,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -12000,7 +11836,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -12021,7 +11857,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -12042,7 +11878,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="11"/>
@@ -12063,7 +11899,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="11"/>
@@ -12084,7 +11920,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="11"/>
@@ -12105,7 +11941,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="11"/>
@@ -12126,7 +11962,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="11"/>
@@ -12147,7 +11983,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="11"/>
@@ -12168,7 +12004,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="11"/>
@@ -12189,7 +12025,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="11"/>
@@ -12210,7 +12046,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="11"/>
@@ -12231,7 +12067,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="11"/>
@@ -12252,7 +12088,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="11"/>
@@ -12273,7 +12109,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="11"/>
@@ -12294,7 +12130,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="11"/>
@@ -12315,7 +12151,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="11"/>
@@ -12336,7 +12172,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="11"/>
@@ -12357,7 +12193,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="11"/>
@@ -12378,7 +12214,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="11"/>
@@ -12399,7 +12235,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
@@ -12420,7 +12256,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
@@ -12441,7 +12277,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
@@ -12462,7 +12298,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
@@ -12483,7 +12319,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
@@ -12504,7 +12340,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
@@ -12525,7 +12361,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
@@ -12546,7 +12382,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
@@ -12567,7 +12403,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
@@ -12588,7 +12424,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
@@ -12609,7 +12445,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
@@ -12630,7 +12466,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
@@ -12651,7 +12487,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
@@ -12672,7 +12508,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
@@ -12693,7 +12529,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
@@ -12714,7 +12550,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
@@ -12735,7 +12571,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
@@ -12756,7 +12592,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
@@ -12777,7 +12613,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
@@ -12798,7 +12634,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
@@ -12819,7 +12655,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
@@ -12840,7 +12676,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
@@ -12861,7 +12697,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
@@ -12882,7 +12718,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
@@ -12903,7 +12739,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
@@ -12924,7 +12760,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B92" s="11"/>
@@ -12945,7 +12781,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B93" s="11"/>
@@ -12966,7 +12802,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B94" s="11"/>
@@ -12987,7 +12823,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B95" s="11"/>
@@ -13008,7 +12844,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B96" s="11"/>
@@ -13029,7 +12865,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B97" s="11"/>
@@ -13050,7 +12886,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B98" s="11"/>
@@ -13071,7 +12907,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B99" s="11"/>
@@ -13092,7 +12928,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B100" s="11"/>
@@ -13113,7 +12949,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B101" s="11"/>
@@ -13134,7 +12970,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B102" s="11"/>
@@ -13161,6 +12997,14 @@
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13195,7 +13039,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -13243,7 +13087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -13266,42 +13110,42 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickTop="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>269</v>
+        <v>279</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>292</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -13316,36 +13160,36 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -13356,17 +13200,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -13385,7 +13229,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -13408,7 +13252,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -13431,7 +13275,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -14031,7 +13875,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75">
       <c r="A36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="11"/>
@@ -14052,7 +13896,7 @@
     </row>
     <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="11"/>
@@ -14073,7 +13917,7 @@
     </row>
     <row r="38" spans="1:16" ht="15.75">
       <c r="A38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="11"/>
@@ -14094,7 +13938,7 @@
     </row>
     <row r="39" spans="1:16" ht="15.75">
       <c r="A39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
@@ -14115,7 +13959,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75">
       <c r="A40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="11"/>
@@ -14136,7 +13980,7 @@
     </row>
     <row r="41" spans="1:16" ht="15.75">
       <c r="A41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="11"/>
@@ -14157,7 +14001,7 @@
     </row>
     <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="11"/>
@@ -14178,7 +14022,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75">
       <c r="A43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="11"/>
@@ -14199,7 +14043,7 @@
     </row>
     <row r="44" spans="1:16" ht="15.75">
       <c r="A44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="11"/>
@@ -14220,7 +14064,7 @@
     </row>
     <row r="45" spans="1:16" ht="15.75">
       <c r="A45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="11"/>
@@ -14241,7 +14085,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75">
       <c r="A46" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="11"/>
@@ -14262,7 +14106,7 @@
     </row>
     <row r="47" spans="1:16" ht="15.75">
       <c r="A47" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="11"/>
@@ -14283,7 +14127,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75">
       <c r="A48" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="11"/>
@@ -14304,7 +14148,7 @@
     </row>
     <row r="49" spans="1:16" ht="15.75">
       <c r="A49" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="11"/>
@@ -14325,7 +14169,7 @@
     </row>
     <row r="50" spans="1:16" ht="15.75">
       <c r="A50" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="11"/>
@@ -14346,7 +14190,7 @@
     </row>
     <row r="51" spans="1:16" ht="15.75">
       <c r="A51" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="11"/>
@@ -14367,7 +14211,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="11"/>
@@ -14388,7 +14232,7 @@
     </row>
     <row r="53" spans="1:16" ht="15.75">
       <c r="A53" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="11"/>
@@ -14409,7 +14253,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75">
       <c r="A54" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="11"/>
@@ -14430,7 +14274,7 @@
     </row>
     <row r="55" spans="1:16" ht="15.75">
       <c r="A55" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="11"/>
@@ -14451,7 +14295,7 @@
     </row>
     <row r="56" spans="1:16" ht="15.75">
       <c r="A56" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="11"/>
@@ -14472,7 +14316,7 @@
     </row>
     <row r="57" spans="1:16" ht="15.75">
       <c r="A57" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="11"/>
@@ -14493,7 +14337,7 @@
     </row>
     <row r="58" spans="1:16" ht="15.75">
       <c r="A58" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="11"/>
@@ -14514,7 +14358,7 @@
     </row>
     <row r="59" spans="1:16" ht="15.75">
       <c r="A59" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="11"/>
@@ -14535,7 +14379,7 @@
     </row>
     <row r="60" spans="1:16" ht="15.75">
       <c r="A60" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="11"/>
@@ -14556,7 +14400,7 @@
     </row>
     <row r="61" spans="1:16" ht="15.75">
       <c r="A61" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="11"/>
@@ -14577,7 +14421,7 @@
     </row>
     <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="11"/>
@@ -14598,7 +14442,7 @@
     </row>
     <row r="63" spans="1:16" ht="15.75">
       <c r="A63" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="11"/>
@@ -14619,7 +14463,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="11"/>
@@ -14640,7 +14484,7 @@
     </row>
     <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="11"/>
@@ -14661,7 +14505,7 @@
     </row>
     <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="11"/>
@@ -14682,7 +14526,7 @@
     </row>
     <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
@@ -14703,7 +14547,7 @@
     </row>
     <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="11">
-        <f t="shared" ref="A68:A102" si="1">A67+1</f>
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
@@ -14724,7 +14568,7 @@
     </row>
     <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
@@ -14745,7 +14589,7 @@
     </row>
     <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
@@ -14766,7 +14610,7 @@
     </row>
     <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
@@ -14787,7 +14631,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
@@ -14808,7 +14652,7 @@
     </row>
     <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
@@ -14829,7 +14673,7 @@
     </row>
     <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
@@ -14850,7 +14694,7 @@
     </row>
     <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
@@ -14871,7 +14715,7 @@
     </row>
     <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
@@ -14892,7 +14736,7 @@
     </row>
     <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
@@ -14913,7 +14757,7 @@
     </row>
     <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
@@ -14934,7 +14778,7 @@
     </row>
     <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
@@ -14955,7 +14799,7 @@
     </row>
     <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
@@ -14976,7 +14820,7 @@
     </row>
     <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
@@ -14997,7 +14841,7 @@
     </row>
     <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
@@ -15018,7 +14862,7 @@
     </row>
     <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
@@ -15039,7 +14883,7 @@
     </row>
     <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
@@ -15060,7 +14904,7 @@
     </row>
     <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
@@ -15081,7 +14925,7 @@
     </row>
     <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
@@ -15102,7 +14946,7 @@
     </row>
     <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
@@ -15123,7 +14967,7 @@
     </row>
     <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
@@ -15144,7 +14988,7 @@
     </row>
     <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
@@ -15165,7 +15009,7 @@
     </row>
     <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
@@ -15186,7 +15030,7 @@
     </row>
     <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
@@ -15207,7 +15051,7 @@
     </row>
     <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B92" s="11"/>
@@ -15228,7 +15072,7 @@
     </row>
     <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B93" s="11"/>
@@ -15249,7 +15093,7 @@
     </row>
     <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B94" s="11"/>
@@ -15270,7 +15114,7 @@
     </row>
     <row r="95" spans="1:16" ht="15.75">
       <c r="A95" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B95" s="11"/>
@@ -15291,7 +15135,7 @@
     </row>
     <row r="96" spans="1:16" ht="15.75">
       <c r="A96" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B96" s="11"/>
@@ -15312,7 +15156,7 @@
     </row>
     <row r="97" spans="1:16" ht="15.75">
       <c r="A97" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B97" s="11"/>
@@ -15333,7 +15177,7 @@
     </row>
     <row r="98" spans="1:16" ht="15.75">
       <c r="A98" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B98" s="11"/>
@@ -15354,7 +15198,7 @@
     </row>
     <row r="99" spans="1:16" ht="15.75">
       <c r="A99" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B99" s="11"/>
@@ -15375,7 +15219,7 @@
     </row>
     <row r="100" spans="1:16" ht="15.75">
       <c r="A100" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B100" s="11"/>
@@ -15396,7 +15240,7 @@
     </row>
     <row r="101" spans="1:16" ht="15.75">
       <c r="A101" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B101" s="11"/>
@@ -15417,7 +15261,7 @@
     </row>
     <row r="102" spans="1:16" ht="15.75">
       <c r="A102" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B102" s="11"/>
@@ -15444,5 +15288,13 @@
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="323">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -957,6 +957,105 @@
   </si>
   <si>
     <t>547G</t>
+  </si>
+  <si>
+    <t>coreadm</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>coreadmコマンドからコアダンプ設定を検索</t>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>psrinfo</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>psrinfo コマンドからプロセッサ構成を検索</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ipadm</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>zoneadm</t>
+  </si>
+  <si>
+    <t>zoneadmコマンドからSolarisゾーン設定を検索</t>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solarisゾーン設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロセッサ状態</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コアダンプ有効化設定</t>
+    <rPh sb="5" eb="8">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Solarisゾーンプール設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>poolstat</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>poolstat -r allコマンドからSolarisゾーンプール設定を検索</t>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>/etc/system設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>system_etc</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>/etc/system から システムパラメータを検索</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -5352,10 +5451,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G41"/>
+  <dimension ref="A4:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5663,114 +5762,122 @@
         <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:7" ht="27">
+      <c r="A23" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>71</v>
@@ -5782,35 +5889,33 @@
         <v>203</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
@@ -5819,17 +5924,17 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>71</v>
@@ -5838,17 +5943,17 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
@@ -5857,17 +5962,17 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -5878,17 +5983,17 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -5899,84 +6004,74 @@
         <v>159</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="2" t="s">
-        <v>159</v>
-      </c>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
-      <c r="A32" s="2" t="s">
-        <v>159</v>
-      </c>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -5987,16 +6082,18 @@
         <v>159</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>71</v>
       </c>
@@ -6006,86 +6103,84 @@
         <v>159</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="27">
       <c r="A38" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>71</v>
@@ -6096,39 +6191,39 @@
         <v>159</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39" t="s">
-        <v>265</v>
-      </c>
+      <c r="A40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="2" t="s">
         <v>71</v>
       </c>
@@ -6138,28 +6233,160 @@
         <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -4263,7 +4263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4460,12 +4462,8 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
-      <c r="M5" s="35">
-        <v>6</v>
-      </c>
-      <c r="N5" s="35">
-        <v>48</v>
-      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>

--- a/template/Solaris/blank_Solarisチェックシート.xlsx
+++ b/template/Solaris/blank_Solarisチェックシート.xlsx
@@ -25,17 +25,17 @@
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1559162520" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1559162520" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1559162520" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1559162520"/>
+      <pm:revision xmlns:pm="smNativeData" day="1560455495" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1560455495" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1560455495" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1560455495"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="326">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -505,15 +505,15 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Platform</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -625,6 +625,42 @@
     <t>/etc/resolve.conf から nameserver を検索</t>
   </si>
   <si>
+    <t>コアダンプ有効化設定</t>
+  </si>
+  <si>
+    <t>coreadm</t>
+  </si>
+  <si>
+    <t>coreadmコマンドからコアダンプ設定を検索</t>
+  </si>
+  <si>
+    <t>/etc/system設定</t>
+  </si>
+  <si>
+    <t>system_etc</t>
+  </si>
+  <si>
+    <t>/etc/system から システムパラメータを検索</t>
+  </si>
+  <si>
+    <t>Solarisゾーン設定</t>
+  </si>
+  <si>
+    <t>zoneadm</t>
+  </si>
+  <si>
+    <t>zoneadmコマンドからSolarisゾーン設定を検索</t>
+  </si>
+  <si>
+    <t>Solarisゾーンプール設定</t>
+  </si>
+  <si>
+    <t>poolstat</t>
+  </si>
+  <si>
+    <t>poolstat -r allコマンドからSolarisゾーンプール設定を検索</t>
+  </si>
+  <si>
     <t>NTP設定</t>
   </si>
   <si>
@@ -691,6 +727,15 @@
     <t>kstat -p cpu_info コマンドからプロセッサ構成を検索</t>
   </si>
   <si>
+    <t>プロセッサ状態</t>
+  </si>
+  <si>
+    <t>psrinfo</t>
+  </si>
+  <si>
+    <t>psrinfo コマンドからプロセッサ構成を検索</t>
+  </si>
+  <si>
     <t>メモリ</t>
   </si>
   <si>
@@ -748,6 +793,9 @@
     <t>/usr/sbin/ifconfig -a'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
   </si>
   <si>
+    <t>ipadm</t>
+  </si>
+  <si>
     <t>デフォルトゲートウェイ</t>
   </si>
   <si>
@@ -776,9 +824,6 @@
   </si>
   <si>
     <t>zpool</t>
-  </si>
-  <si>
-    <t>/usr/sbin/zpool status' コマンドでRAID情報を取得(Solaris11 ZFSのみ)</t>
   </si>
   <si>
     <t>ファイルシステム</t>
@@ -959,103 +1004,18 @@
     <t>547G</t>
   </si>
   <si>
-    <t>coreadm</t>
+    <t>ZFSプールリスト</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>coreadmコマンドからコアダンプ設定を検索</t>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンサク</t>
-    </rPh>
+    <t>zpool_list</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>psrinfo</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>psrinfo コマンドからプロセッサ構成を検索</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>ipadm</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>zoneadm</t>
-  </si>
-  <si>
-    <t>zoneadmコマンドからSolarisゾーン設定を検索</t>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Solarisゾーン設定</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>プロセッサ状態</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>コアダンプ有効化設定</t>
-    <rPh sb="5" eb="8">
-      <t>ユウコウカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Solarisゾーンプール設定</t>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>poolstat</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>poolstat -r allコマンドからSolarisゾーンプール設定を検索</t>
-    <rPh sb="34" eb="36">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>/etc/system設定</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>system_etc</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>/etc/system から システムパラメータを検索</t>
-    <phoneticPr fontId="10"/>
+    <t>/usr/sbin/zpool status' コマンドでZFSプール情報を取得(Solaris11 ZFSのみ)</t>
+  </si>
+  <si>
+    <t>/usr/sbin/zpool list' コマンドでZFSプール情報を取得(Solaris11 ZFSのみ)</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,17 +1601,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1683,10 +1637,10 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1559162520" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1560455495" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1559162520" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1560455495" count="3">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -2841,28 +2795,28 @@
     <row r="34" spans="1:21">
       <c r="A34" s="30"/>
       <c r="B34" s="35"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="49"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="30"/>
     </row>
     <row r="35" spans="1:21">
@@ -4250,7 +4204,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4263,9 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4285,28 +4237,28 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="4"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4"/>
@@ -4908,7 +4860,7 @@
       </x14:dataValidations>
     </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5347,7 +5299,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5438,7 +5390,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5449,10 +5401,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G47"/>
+  <dimension ref="A4:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A19" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5481,13 +5433,13 @@
         <v>155</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5763,14 +5715,14 @@
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>71</v>
@@ -5784,14 +5736,14 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>321</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>71</v>
@@ -5805,14 +5757,14 @@
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>71</v>
@@ -5826,14 +5778,14 @@
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>318</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>319</v>
+        <v>207</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>71</v>
@@ -5844,17 +5796,17 @@
         <v>159</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>71</v>
@@ -5865,17 +5817,17 @@
         <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>71</v>
@@ -5884,17 +5836,17 @@
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>71</v>
@@ -5903,17 +5855,17 @@
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>71</v>
@@ -5922,17 +5874,17 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>71</v>
@@ -5941,17 +5893,17 @@
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>71</v>
@@ -5960,17 +5912,17 @@
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>71</v>
@@ -5981,17 +5933,17 @@
         <v>159</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>71</v>
@@ -6002,17 +5954,17 @@
         <v>159</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>71</v>
@@ -6021,17 +5973,17 @@
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>71</v>
@@ -6040,17 +5992,17 @@
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>71</v>
@@ -6059,17 +6011,17 @@
     <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>71</v>
@@ -6080,17 +6032,17 @@
         <v>159</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>71</v>
@@ -6101,17 +6053,17 @@
         <v>159</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
@@ -6122,19 +6074,19 @@
         <v>159</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>71</v>
@@ -6145,19 +6097,19 @@
         <v>159</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>71</v>
@@ -6168,17 +6120,17 @@
         <v>159</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>71</v>
@@ -6189,19 +6141,19 @@
         <v>159</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>71</v>
@@ -6212,13 +6164,13 @@
         <v>159</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -6231,19 +6183,19 @@
         <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>71</v>
@@ -6254,19 +6206,19 @@
         <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>71</v>
@@ -6277,17 +6229,19 @@
         <v>159</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>71</v>
@@ -6298,19 +6252,17 @@
         <v>159</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>71</v>
@@ -6321,77 +6273,100 @@
         <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39" t="s">
-        <v>265</v>
+      <c r="A46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="F48" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6430,7 +6405,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>71</v>
@@ -6501,31 +6476,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -6533,35 +6508,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>280</v>
+        <v>294</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>295</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="20" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="17" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -6577,7 +6552,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22"/>
@@ -6600,7 +6575,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6623,7 +6598,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6646,7 +6621,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -8661,7 +8636,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -8699,7 +8674,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>71</v>
@@ -8770,160 +8745,160 @@
         <v>66</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
-      <c r="A3" s="42">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43" t="s">
-        <v>293</v>
+      <c r="B3" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="42" t="s">
+        <v>308</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
-      <c r="A4" s="45">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+        <v>302</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="45">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+        <v>303</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="45">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+        <v>304</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="45">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+        <v>305</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="11">
@@ -10930,7 +10905,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11040,31 +11015,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.5">
@@ -11072,10 +11047,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>280</v>
+        <v>294</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>295</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -11090,31 +11065,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -11130,17 +11105,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="22" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -11159,14 +11134,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -11186,7 +11161,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11209,7 +11184,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -13224,7 +13199,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13335,31 +13310,31 @@
         <v>66</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75">
@@ -13367,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>307</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -13385,31 +13360,31 @@
         <v>128</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>284</v>
-      </c>
       <c r="O3" s="17" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -13425,17 +13400,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="12"/>
       <c r="I4" s="21" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="13" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -13454,7 +13429,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="21" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -13477,7 +13452,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="21" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -13500,7 +13475,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="21" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -15508,14 +15483,14 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559162520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1560455495" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
